--- a/storage/app/public/excel/users.xlsx
+++ b/storage/app/public/excel/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C25D812-080D-4AC3-A2FC-A86E3FF32638}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E3768D-AD0D-4C36-B43F-7026275EB202}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>first_name</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t>is_admin</t>
+  </si>
+  <si>
+    <t>Wiedza</t>
+  </si>
+  <si>
+    <t>Praktyka</t>
+  </si>
+  <si>
+    <t>wip@wip.com</t>
+  </si>
+  <si>
+    <t>Specializacja 1</t>
+  </si>
+  <si>
+    <t>Specializacja 2</t>
   </si>
 </sst>
 </file>
@@ -441,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,11 +609,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C869007B-7A7E-403D-A9FD-A7BB9E3FAD3E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{9097BC07-AB89-43F4-8E89-7707A04C1454}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{37812440-A09C-460D-84C4-9BD88BD90441}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F0FC2D2A-022D-4552-A5BD-85FB2829F92C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
